--- a/KixDutyFree.MudBlazor.Shared/商品.xlsx
+++ b/KixDutyFree.MudBlazor.Shared/商品.xlsx
@@ -22,10 +22,10 @@
     <t>购买数量</t>
   </si>
   <si>
-    <t>https://www.kixdutyfree.jp/cn/peace-super-light-box-2411900004.html</t>
+    <t>https://www.kixdutyfree.jp/cn/%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E7%81%B0%E8%89%B2-2407000018.html?%2Fcn%2F%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E7%81%B0%E8%89%B2-2407000018.html=undefined&amp;quantity=1</t>
   </si>
   <si>
-    <t>https://www.kixdutyfree.jp/cn/%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E6%A3%95%E8%89%B2-2407000011.html</t>
+    <t>https://www.kixdutyfree.jp/cn/%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E6%A3%95%E8%89%B2-2407000011.html?%2Fcn%2F%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E6%A3%95%E8%89%B2-2407000011.html=undefined&amp;quantity=1</t>
   </si>
 </sst>
 </file>
@@ -976,12 +976,12 @@
   <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="124.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="137.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -993,20 +993,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:2">
+    <row r="2" ht="37" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:2">
+    <row r="3" ht="48" customHeight="1" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1"/>
@@ -1020,10 +1020,6 @@
     <row r="12" ht="27" customHeight="1"/>
     <row r="382" ht="5.25" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.kixdutyfree.jp/cn/peace-super-light-box-2411900004.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.kixdutyfree.jp/cn/%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E6%A3%95%E8%89%B2-2407000011.html" tooltip="https://www.kixdutyfree.jp/cn/%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E6%A3%95%E8%89%B2-2407000011.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>

--- a/KixDutyFree.MudBlazor.Shared/商品.xlsx
+++ b/KixDutyFree.MudBlazor.Shared/商品.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>地址</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>https://www.kixdutyfree.jp/cn/%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E6%A3%95%E8%89%B2-2407000011.html?%2Fcn%2F%E5%8D%A1%E6%AF%94%E9%BE%99%E6%80%BB%E8%A3%81%E6%A3%95%E8%89%B2-2407000011.html=undefined&amp;quantity=1</t>
+  </si>
+  <si>
+    <t>https://www.kixdutyfree.jp/cn/peace-super-light-box-2411900004.html</t>
   </si>
 </sst>
 </file>
@@ -976,7 +979,7 @@
   <dimension ref="A1:B382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1009,7 +1012,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="27" customHeight="1"/>
+    <row r="4" ht="27" customHeight="1" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
     <row r="5" ht="27" customHeight="1"/>
     <row r="6" ht="27" customHeight="1"/>
     <row r="7" ht="27" customHeight="1"/>
@@ -1020,6 +1030,9 @@
     <row r="12" ht="27" customHeight="1"/>
     <row r="382" ht="5.25" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="https://www.kixdutyfree.jp/cn/peace-super-light-box-2411900004.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
